--- a/data/trans_camb/P14B23_2016_2023-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P14B23_2016_2023-Clase-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>1.302108240493642</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>1.074955870298196</v>
+        <v>1.074955870298197</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1.241635890943387</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003895925368000402</v>
+        <v>-0.2064628716242938</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.628232523094596</v>
+        <v>-1.522943084188087</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.07891418781074394</v>
+        <v>-0.09198980570969552</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.107671982230384</v>
+        <v>2.86239693703208</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.381299144458088</v>
+        <v>3.295918006849222</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.610288644619088</v>
+        <v>2.634244314584393</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>1.90562716980863</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.4083532818305</v>
+        <v>0.4083532818305002</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.7985580091276354</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2870531853191204</v>
+        <v>-0.5033591357193851</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3885588576240423</v>
+        <v>-0.3958639461723341</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1101034677268301</v>
+        <v>-0.08562100982103585</v>
       </c>
     </row>
     <row r="9">
@@ -648,12 +648,14 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr"/>
+      <c r="C9" s="6" t="n">
+        <v>12.34577987334568</v>
+      </c>
       <c r="D9" s="6" t="n">
-        <v>2.650692315664381</v>
+        <v>2.453170486293926</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.032192092500314</v>
+        <v>2.907666510429435</v>
       </c>
     </row>
     <row r="10">
@@ -671,7 +673,7 @@
         <v>1.658607553668711</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3.452154351626455</v>
+        <v>3.452154351626457</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>2.474689707353674</v>
@@ -685,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2732067422657952</v>
+        <v>0.4622970022082369</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.628251546060543</v>
+        <v>1.472555508399103</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.307947096444843</v>
+        <v>1.245590667920169</v>
       </c>
     </row>
     <row r="12">
@@ -702,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.17246523656477</v>
+        <v>3.229294484635838</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.477358077895849</v>
+        <v>5.432575865745473</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.800541763008943</v>
+        <v>3.703277794762792</v>
       </c>
     </row>
     <row r="13">
@@ -722,10 +724,10 @@
         <v>3.413976882939917</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>2.959232226065661</v>
+        <v>2.959232226065664</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>3.00344599213282</v>
+        <v>3.003445992132819</v>
       </c>
     </row>
     <row r="14">
@@ -736,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3869837495073852</v>
+        <v>-0.1097208056509662</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4885771488402271</v>
+        <v>0.385207372652467</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8640307358767809</v>
+        <v>0.7472696932812797</v>
       </c>
     </row>
     <row r="15">
@@ -754,10 +756,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>14.42557563624996</v>
+        <v>14.55340078935116</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11.0027176905165</v>
+        <v>10.42401931540778</v>
       </c>
     </row>
     <row r="16">
@@ -772,10 +774,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>3.224308988903373</v>
+        <v>3.224308988903372</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-0.7859724377318287</v>
+        <v>-0.78597243773183</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>2.36712773530537</v>
@@ -789,13 +791,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.123881226798777</v>
+        <v>1.353942127803953</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.560332931977292</v>
+        <v>-6.622225952434485</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2083994232175324</v>
+        <v>0.2988097733470357</v>
       </c>
     </row>
     <row r="18">
@@ -806,13 +808,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.550406823650621</v>
+        <v>5.740480444476245</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.872741622580898</v>
+        <v>4.065190769937614</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.310992192469493</v>
+        <v>4.359139885553551</v>
       </c>
     </row>
     <row r="19">
@@ -823,10 +825,10 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2.687939405714682</v>
+        <v>2.687939405714681</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.101165151767877</v>
+        <v>-0.1011651517678771</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.8497256143938756</v>
@@ -840,13 +842,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2897139318037684</v>
+        <v>0.400156250382089</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5660680021527031</v>
+        <v>-0.5688508035918148</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.03401901738208297</v>
+        <v>0.03826591546675109</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +859,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>9.790844390072728</v>
+        <v>9.885055680982063</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7997079192980409</v>
+        <v>1.050955504016637</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.295850972271138</v>
+        <v>2.149286150918405</v>
       </c>
     </row>
     <row r="22">
@@ -895,13 +897,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7846094123306397</v>
+        <v>0.9341157389418521</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2943003098642955</v>
+        <v>0.4504435377849897</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.014576203284442</v>
+        <v>1.069554642927099</v>
       </c>
     </row>
     <row r="24">
@@ -912,13 +914,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.587591188067121</v>
+        <v>3.748608397617495</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.887837622968811</v>
+        <v>4.023856717119941</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.307010058605547</v>
+        <v>3.250518720830527</v>
       </c>
     </row>
     <row r="25">
@@ -932,10 +934,10 @@
         <v>1.26948028782806</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.6975688068160055</v>
+        <v>0.6975688068160053</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.9482725927612544</v>
+        <v>0.9482725927612541</v>
       </c>
     </row>
     <row r="26">
@@ -946,13 +948,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3044612316438091</v>
+        <v>0.3749961602792212</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.033920394228989</v>
+        <v>0.08678789055276531</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3512493062889751</v>
+        <v>0.3631167915277962</v>
       </c>
     </row>
     <row r="27">
@@ -963,13 +965,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.935743589272223</v>
+        <v>3.029799665250619</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.591388974094489</v>
+        <v>1.752372372383761</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.81103218848722</v>
+        <v>1.727754634416021</v>
       </c>
     </row>
     <row r="28">
@@ -1001,13 +1003,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.200829048275773</v>
+        <v>-1.132997758959656</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.9214264306237161</v>
+        <v>-0.9636487201961657</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.2096929991911833</v>
+        <v>-0.1024617761702492</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1020,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.743564362022298</v>
+        <v>2.769609892157531</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.559817595614352</v>
+        <v>3.914550938163053</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.091127579107734</v>
+        <v>3.004176997399126</v>
       </c>
     </row>
     <row r="31">
@@ -1052,13 +1054,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.381402876052356</v>
+        <v>-0.3809816771043208</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.111907398933949</v>
+        <v>-0.1254286185374806</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.03937954036371646</v>
+        <v>-0.01739356322805875</v>
       </c>
     </row>
     <row r="33">
@@ -1069,13 +1071,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.777400817422035</v>
+        <v>1.79584947801712</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7385821598538848</v>
+        <v>0.7979153172580368</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8457628062239544</v>
+        <v>0.8176909932877213</v>
       </c>
     </row>
     <row r="34">
@@ -1093,7 +1095,7 @@
         <v>4.13942511090344</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>1.115273531493183</v>
+        <v>1.115273531493185</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>1.732743640014891</v>
@@ -1107,13 +1109,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.621939016757199</v>
+        <v>1.518889786382952</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.916725900446373</v>
+        <v>-0.8110962235851135</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.06230806324440692</v>
+        <v>0.01720680262690007</v>
       </c>
     </row>
     <row r="36">
@@ -1124,13 +1126,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.00386319252919</v>
+        <v>9.058611843650894</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.224061562516652</v>
+        <v>3.026378989026803</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.657788052434674</v>
+        <v>3.494688850145659</v>
       </c>
     </row>
     <row r="37">
@@ -1144,7 +1146,7 @@
         <v>12.49322428198726</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.2167426137628027</v>
+        <v>0.216742613762803</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.4190197702933448</v>
@@ -1159,10 +1161,10 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>-0.1516256578869488</v>
+        <v>-0.1350926867061643</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.001460927197105205</v>
+        <v>-0.01042920464757839</v>
       </c>
     </row>
     <row r="39">
@@ -1174,10 +1176,10 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>0.7685109372158654</v>
+        <v>0.7532735529536894</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.06425401818467</v>
+        <v>1.013158219824085</v>
       </c>
     </row>
     <row r="40">
@@ -1192,10 +1194,10 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>1.942966759277586</v>
+        <v>1.942966759277585</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>1.560051809244326</v>
+        <v>1.560051809244324</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>1.755919540491684</v>
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.241222539520245</v>
+        <v>1.184138496938153</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.5618429503618574</v>
+        <v>0.5627490790211607</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.116546963782379</v>
+        <v>1.132961826544218</v>
       </c>
     </row>
     <row r="42">
@@ -1226,13 +1228,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.755469911174541</v>
+        <v>2.666773579698512</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.419522790367816</v>
+        <v>2.522810640096829</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.364438304360585</v>
+        <v>2.392900478694331</v>
       </c>
     </row>
     <row r="43">
@@ -1243,10 +1245,10 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>1.414519894805486</v>
+        <v>1.414519894805485</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.3554355762749299</v>
+        <v>0.3554355762749295</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>0.6027987759873846</v>
@@ -1260,13 +1262,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.7172823139176422</v>
+        <v>0.6823815698920047</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1147449591830872</v>
+        <v>0.1052146574389652</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3448380861294655</v>
+        <v>0.3477494182923987</v>
       </c>
     </row>
     <row r="45">
@@ -1277,13 +1279,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.441289764654981</v>
+        <v>2.447033605775957</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6286306535946404</v>
+        <v>0.6500940475586148</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.9314066930339738</v>
+        <v>0.9201779076304918</v>
       </c>
     </row>
     <row r="46">
